--- a/schwarzschild.xlsx
+++ b/schwarzschild.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Documents\git\multiexposure_schwarzschild_compensation_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3D8853-FEA0-4DD5-8FF7-95B70041F167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA9E812-2C26-4D98-97BD-3B008B14F683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{DD76BD61-53DE-40D6-8FFC-6C111A3C2BD9}"/>
+    <workbookView xWindow="18592" yWindow="1230" windowWidth="7666" windowHeight="6000" xr2:uid="{DD76BD61-53DE-40D6-8FFC-6C111A3C2BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Exposure (Log H Lux Seconds)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -64,8 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -380,12 +401,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AC11BD-D6EE-45A1-9AD9-2372F90731E6}">
-  <dimension ref="A1"/>
+  <dimension ref="G1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="3" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G3" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G4" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="5" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G5" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G6" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="7" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G8" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G9" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G11" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G12" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="14" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G14" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G15" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G16" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G17" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G18" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G19" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/schwarzschild.xlsx
+++ b/schwarzschild.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Documents\git\multiexposure_schwarzschild_compensation_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA9E812-2C26-4D98-97BD-3B008B14F683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2ECB99-79C8-4ACE-BA46-189F0D068CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18592" yWindow="1230" windowWidth="7666" windowHeight="6000" xr2:uid="{DD76BD61-53DE-40D6-8FFC-6C111A3C2BD9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{DD76BD61-53DE-40D6-8FFC-6C111A3C2BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>Density</t>
   </si>
   <si>
-    <t>Exposure (Log H Lux Seconds)</t>
+    <t xml:space="preserve">Exposure </t>
   </si>
 </sst>
 </file>
@@ -102,6 +102,1286 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Exposure Curve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$H$2:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$G$2:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A92-4112-9124-2D45D7BFF3D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="277581944"/>
+        <c:axId val="277582584"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="9525" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$H$2:$H$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>-2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-2.25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-1.6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-1.25</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-0.66</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-0.28000000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$H$2:$H$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>-2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-2.25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-1.75</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-1.6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-1.25</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-0.75</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-0.66</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-0.28000000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.25</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="1"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-1A92-4112-9124-2D45D7BFF3D1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="277581944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Exposure (Log H [Lux</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Seconds])</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="277582584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="277582584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Density</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="277581944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EED378C9-0008-4D31-BE89-17E0DCEE6043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,11 +1683,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AC11BD-D6EE-45A1-9AD9-2372F90731E6}">
   <dimension ref="G1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="6" max="6" width="15.73046875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G1" s="1" t="s">
@@ -584,5 +1867,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/schwarzschild.xlsx
+++ b/schwarzschild.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Documents\git\multiexposure_schwarzschild_compensation_sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2ECB99-79C8-4ACE-BA46-189F0D068CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388FEC77-26E6-4730-BCEF-E4196CA1D8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{DD76BD61-53DE-40D6-8FFC-6C111A3C2BD9}"/>
   </bookViews>
@@ -34,12 +34,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Density</t>
   </si>
   <si>
     <t xml:space="preserve">Exposure </t>
+  </si>
+  <si>
+    <t>Film ISO</t>
+  </si>
+  <si>
+    <t>Number of Exposures:</t>
+  </si>
+  <si>
+    <t>Base Values</t>
+  </si>
+  <si>
+    <t>Variable Values</t>
+  </si>
+  <si>
+    <t>Exposure#</t>
+  </si>
+  <si>
+    <t>ISO to set</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Target Exposure:</t>
   </si>
 </sst>
 </file>
@@ -63,18 +87,128 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -83,10 +217,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -175,7 +323,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8426170590396266E-2"/>
+          <c:y val="0.15929247084352771"/>
+          <c:w val="0.90118592680130838"/>
+          <c:h val="0.67491717104697158"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -1353,8 +1511,8 @@
       <xdr:rowOff>16667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
@@ -1681,188 +1839,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99AC11BD-D6EE-45A1-9AD9-2372F90731E6}">
-  <dimension ref="G1:H24"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="19.796875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.73046875" customWidth="1"/>
+    <col min="11" max="11" width="12.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="7:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G2" s="2">
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="7:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G2" s="12">
         <v>3.7</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="5">
         <v>-2.8</v>
       </c>
-    </row>
-    <row r="3" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G3" s="2">
+      <c r="I2" s="9">
+        <v>50</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="7:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G3" s="13">
         <v>3.6</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="6">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="4" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G4" s="2">
+      <c r="K3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="7:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G4" s="13">
         <v>3.5</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <v>-2.25</v>
       </c>
-    </row>
-    <row r="5" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G5" s="2">
+      <c r="K4" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G5" s="13">
         <v>3.4</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G6" s="2">
+    <row r="6" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G6" s="13">
         <v>3.3</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <v>-1.75</v>
       </c>
     </row>
-    <row r="7" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G7" s="2">
+    <row r="7" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G7" s="13">
         <v>3</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="6">
         <v>-1.6</v>
       </c>
     </row>
-    <row r="8" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G8" s="2">
+    <row r="8" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G8" s="13">
         <v>2.7</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="6">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="9" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G9" s="2">
+    <row r="9" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G9" s="13">
         <v>2.1</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="6">
         <v>-1.25</v>
       </c>
     </row>
-    <row r="10" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G10" s="2">
+    <row r="10" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G10" s="13">
         <v>2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="6">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="11" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G11" s="2">
+    <row r="11" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G11" s="13">
         <v>1.5</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="6">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G12" s="2">
+    <row r="12" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G12" s="13">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="6">
         <v>-0.75</v>
       </c>
     </row>
-    <row r="13" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G13" s="2">
+    <row r="13" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G13" s="13">
         <v>1</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="6">
         <v>-0.66</v>
       </c>
     </row>
-    <row r="14" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G14" s="2">
+    <row r="14" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G14" s="13">
         <v>0.75</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="6">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="15" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G15" s="2">
+    <row r="15" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G15" s="13">
         <v>0.5</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="6">
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="16" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G16" s="2">
+    <row r="16" spans="7:11" x14ac:dyDescent="0.45">
+      <c r="G16" s="13">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G17" s="2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G17" s="13">
         <v>0.16</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G18" s="2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G18" s="13">
         <v>0.12</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G19" s="2">
+    <row r="19" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G19" s="13">
         <v>0.12</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.45">
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+    <row r="20" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G21" s="13"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="11"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="11"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="11"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="11"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="11"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="11"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="11"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="11"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="11"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="11"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="11"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="11"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="11"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="11"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="11"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="11"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="11"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="11"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="11"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="11"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="11"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="11"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="11"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="11"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G47" s="14"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G48" s="14"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G49" s="14"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="7:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G50" s="15"/>
+      <c r="H50" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
